--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2927710.175690292</v>
+        <v>2923377.690869602</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>174.0080053381483</v>
       </c>
       <c r="V2" t="n">
-        <v>156.2131890209711</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>116.1430940756185</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>36.86740133315027</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>124.931892324996</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>189.5599602997973</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>10.10581259942152</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>141.5548385065705</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>56.49495139346423</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>372.5327915267492</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>22.35002255071607</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.31590541686263</v>
       </c>
     </row>
     <row r="11">
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174122</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>41.74133133758713</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>131.2944603446578</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>35.88641949135544</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>91.40260836685067</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D22" t="n">
-        <v>136.5667167289874</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.89407438975442</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881304</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>79.7011924439779</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>161.355549430153</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>94.64226186542889</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>27.6842674365317</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881303</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>234.2545358525719</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>71.05846343488149</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>154.5586518047165</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,16 +4194,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>223.1546446143035</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>152.854689248206</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>586.5435612426379</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="C2" t="n">
-        <v>586.5435612426379</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
         <v>221.3323618866839</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2466.35473959099</v>
       </c>
       <c r="V2" t="n">
-        <v>2089.517146813766</v>
+        <v>2135.291852247419</v>
       </c>
       <c r="W2" t="n">
-        <v>1736.748491543651</v>
+        <v>1782.523196977305</v>
       </c>
       <c r="X2" t="n">
-        <v>1363.282733282571</v>
+        <v>1409.057438716225</v>
       </c>
       <c r="Y2" t="n">
-        <v>973.1434013067596</v>
+        <v>1018.918106740413</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,19 +4409,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>319.1723320447965</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>319.1723320447965</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>319.1723320447965</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>171.2592384624033</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>171.2592384624033</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>171.2592384624033</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>690.8891848800198</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>690.8891848800198</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>463.5809975486215</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>463.5809975486215</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>463.5809975486215</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>463.5809975486215</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1668.489050745291</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="C5" t="n">
-        <v>1299.526533804879</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="D5" t="n">
-        <v>941.2608351981287</v>
+        <v>1522.852542550656</v>
       </c>
       <c r="E5" t="n">
-        <v>555.4725825998845</v>
+        <v>1137.064289952412</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>726.0783851628046</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4564,55 +4564,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.6828813766</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="X5" t="n">
-        <v>1794.6828813766</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1794.6828813766</v>
+        <v>1881.118241157407</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.1363086691491</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="C7" t="n">
-        <v>246.1363086691491</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="D7" t="n">
-        <v>235.9284171545819</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="E7" t="n">
-        <v>235.9284171545819</v>
+        <v>365.9274674422043</v>
       </c>
       <c r="F7" t="n">
-        <v>235.9284171545819</v>
+        <v>365.9274674422043</v>
       </c>
       <c r="G7" t="n">
-        <v>235.9284171545819</v>
+        <v>196.9276671805367</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1363086691491</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="W7" t="n">
-        <v>246.1363086691491</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="X7" t="n">
-        <v>246.1363086691491</v>
+        <v>513.8405610245974</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.1363086691491</v>
+        <v>513.8405610245974</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035238</v>
+        <v>1954.241103772297</v>
       </c>
       <c r="C8" t="n">
-        <v>863.1126181035238</v>
+        <v>1585.278586831885</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353781</v>
+        <v>1227.012888225135</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353781</v>
+        <v>841.2246356268904</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861747</v>
+        <v>430.2387308372828</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404537</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143457</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1954.241103772297</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V10" t="n">
-        <v>473.4444960005474</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W10" t="n">
-        <v>450.8687156462887</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5029,16 +5029,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5050,13 +5050,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5068,16 +5068,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>417.9651836029414</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>913.2907898187001</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>430.7826650753331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>282.8695714929399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>135.9796239950296</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>135.9796239950296</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>2728.681520806317</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>3326.060008432869</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>3953.657971987476</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>4267.210002903525</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2131.487582220359</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>2131.487582220359</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V16" t="n">
-        <v>1876.803094014472</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W16" t="n">
-        <v>1587.385923977512</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1359.396373079494</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5557,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>2233.355914590558</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>2233.355914590558</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>2233.355914590558</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>2830.73440221711</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>3458.332365771717</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>4010.242096011004</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>4433.865245506072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>641.1291986799072</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2104.736678450344</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1815.661451794542</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1560.976963588655</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1271.559793551694</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1043.570242653677</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>822.7776635101469</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.886107649656</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2367.795837888943</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>526.5658826424041</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2622.596178821928</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>3117.921785037687</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3715.300272664238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>3715.300272664238</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>542.9134462654469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>542.9134462654469</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3275.130390493382</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3106.194207565476</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>2956.07756815314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.571434467152</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3677.571434467152</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3456.778855323622</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>366.9636532421613</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>199.7675539570412</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6897,13 +6897,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1405.737459147272</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1177.747908249255</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>956.9553291057244</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,13 +6928,13 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6961,13 +6961,13 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J36" t="n">
-        <v>172.349019141113</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>506.2737913123336</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L36" t="n">
-        <v>506.2737913123336</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3025.687952571559</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>3025.687952571559</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>2875.571313159223</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>4471.231687421535</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>4182.156460765733</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>3945.535717480307</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W37" t="n">
-        <v>3656.118547443346</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X37" t="n">
-        <v>3428.128996545328</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y37" t="n">
-        <v>3207.336417401798</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811333</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2125.286319795768</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1870.601831589881</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1581.18466155292</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1353.195110654903</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>1132.402531511373</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7411,7 +7411,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7444,16 +7444,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>1337.934786622704</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1965.532750177311</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2517.442480416598</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2517.442480416598</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>612.4182386381636</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578602</v>
@@ -7605,16 +7605,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1532.266003546912</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1242.848833509951</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1014.859282611934</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>794.0667034684034</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>3406.350378974037</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>4033.948342528643</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3260.450525729772</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>3091.514342801865</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>2941.39770338953</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>2793.484609807137</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3642.838752636078</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X46" t="n">
-        <v>3414.849201738061</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>3260.450525729772</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,10 +8069,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
-        <v>350.4438349360586</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451758</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783523</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>98.55338150863676</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>86.11098998263051</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>126.0028419604376</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D22" t="n">
-        <v>12.04875628922491</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>127.9379057921829</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>66.73277020259127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24663,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>35.4033308462452</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>258.8387309000593</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>17.88310747125607</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>215.1260109543626</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,19 +25788,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>97.57899151911153</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>63.36835372228745</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.72996410388876</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>750880.2124683422</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>750880.2124683422</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380331</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="F2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="G2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="H2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="G2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442554</v>
-      </c>
-      <c r="I2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442552</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="M2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442547</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577088</v>
+        <v>944372.7777577086</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080585</v>
+        <v>124208.5107080586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670473</v>
       </c>
       <c r="F4" t="n">
         <v>5067.592601670436</v>
@@ -26435,13 +26435,13 @@
         <v>5067.592601670437</v>
       </c>
       <c r="H4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670416</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670354</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670437</v>
@@ -26450,13 +26450,13 @@
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670469</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670437</v>
+        <v>5067.592601670395</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670413</v>
+        <v>5067.592601670438</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196532.0030676523</v>
+        <v>-196532.0030676519</v>
       </c>
       <c r="C6" t="n">
-        <v>393435.8761468923</v>
+        <v>393435.8761468925</v>
       </c>
       <c r="D6" t="n">
-        <v>393435.8761468922</v>
+        <v>393435.8761468927</v>
       </c>
       <c r="E6" t="n">
-        <v>-384666.9554390315</v>
+        <v>-385014.3346933884</v>
       </c>
       <c r="F6" t="n">
-        <v>559705.8223186776</v>
+        <v>559358.4430643205</v>
       </c>
       <c r="G6" t="n">
-        <v>559705.8223186773</v>
+        <v>559358.4430643205</v>
       </c>
       <c r="H6" t="n">
-        <v>559705.8223186779</v>
+        <v>559358.4430643207</v>
       </c>
       <c r="I6" t="n">
-        <v>559705.8223186773</v>
+        <v>559358.4430643207</v>
       </c>
       <c r="J6" t="n">
-        <v>383282.6031260844</v>
+        <v>382935.2238717277</v>
       </c>
       <c r="K6" t="n">
-        <v>559705.8223186777</v>
+        <v>559358.4430643209</v>
       </c>
       <c r="L6" t="n">
-        <v>559705.8223186773</v>
+        <v>559358.4430643207</v>
       </c>
       <c r="M6" t="n">
-        <v>435497.3116106187</v>
+        <v>435149.9323562622</v>
       </c>
       <c r="N6" t="n">
-        <v>559705.8223186774</v>
+        <v>559358.4430643206</v>
       </c>
       <c r="O6" t="n">
-        <v>559705.8223186773</v>
+        <v>559358.4430643204</v>
       </c>
       <c r="P6" t="n">
-        <v>559705.8223186773</v>
+        <v>559358.4430643203</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245872</v>
+        <v>990.2318361245869</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450924</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450924</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>77.21616217014099</v>
       </c>
       <c r="V2" t="n">
-        <v>171.5390694491638</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>40.02779476617665</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>109.7977906470076</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>257.8019493384846</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,10 +27627,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>224.2242097209977</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>138.5096604187908</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>14.61605033522463</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>298.1880902272187</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>41.25137849404581</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,16 +28070,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>264.1729757858749</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352322</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-5.578167937219307e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>-1.625590208501397e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31457,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,28 +31843,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>314.105962234273</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,10 +32074,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>459.3154675919694</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32311,16 +32311,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>305.187676947251</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>362.5355639238082</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>282.8216163968498</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>284.1014732918236</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>381.6404378718154</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L30" t="n">
-        <v>162.5000833330458</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>137.7376326175082</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33736,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>206.1632388819608</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33976,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>173.3851399586646</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33991,10 +33991,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34216,10 +34216,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34228,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>175.960367665998</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34456,19 +34456,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>339.9772972286964</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35430,7 +35430,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>176.264523259914</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35652,10 +35652,10 @@
         <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>316.719223147525</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>167.346237972892</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>222.5537898377867</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>140.6875824748315</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>150.1270658774933</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>243.7989988974564</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L30" t="n">
-        <v>23.94570355317166</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37086,7 +37086,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>6.39592053417488</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37323,13 +37323,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902427</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>79.32561221529411</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>31.25110603664623</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37639,10 +37639,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37779,10 +37779,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37876,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.9785935799765</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38104,19 +38104,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>197.8432633066781</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2923377.690869602</v>
+        <v>2925138.221172385</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>174.0080053381483</v>
+        <v>186.250717003031</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>116.1430940756185</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>185.0073106919076</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>189.5599602997973</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>251.6298792882207</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>110.2505781800128</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>141.5548385065705</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>372.5327915267492</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>56.55014841542609</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>171.7498680634317</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.31590541686263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174122</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>35.88641949135544</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>206.690869499235</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881304</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,19 +2769,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>285.5970594671152</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>104.8913819999787</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881303</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>41.02686156550217</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>223.1546446143035</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>632.3182666762915</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2466.35473959099</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V2" t="n">
-        <v>2135.291852247419</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W2" t="n">
-        <v>1782.523196977305</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X2" t="n">
-        <v>1409.057438716225</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y2" t="n">
-        <v>1018.918106740413</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="3">
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>319.1723320447965</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="C4" t="n">
-        <v>319.1723320447965</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="D4" t="n">
-        <v>319.1723320447965</v>
+        <v>359.6044479702274</v>
       </c>
       <c r="E4" t="n">
-        <v>171.2592384624033</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>171.2592384624033</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>171.2592384624033</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>541.2529128004671</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>541.2529128004671</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>541.2529128004671</v>
       </c>
       <c r="W4" t="n">
-        <v>500.8207968750362</v>
+        <v>541.2529128004671</v>
       </c>
       <c r="X4" t="n">
-        <v>500.8207968750362</v>
+        <v>541.2529128004671</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.8207968750362</v>
+        <v>541.2529128004671</v>
       </c>
     </row>
     <row r="5">
@@ -4558,19 +4558,19 @@
         <v>726.0783851628046</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>308.1145770609915</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224079</v>
@@ -4637,7 +4637,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4646,22 +4646,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>513.8405610245974</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="C7" t="n">
-        <v>513.8405610245974</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D7" t="n">
-        <v>513.8405610245974</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>365.9274674422043</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>365.9274674422043</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>196.9276671805367</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036446</v>
@@ -4734,43 +4734,43 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245974</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245974</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245974</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245974</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245974</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8405610245974</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8405610245974</v>
+        <v>484.4236418782191</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.241103772297</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1585.278586831885</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1227.012888225135</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>841.2246356268904</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>430.2387308372828</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036446</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4819,7 +4819,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2584.999039512932</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2584.999039512932</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2331.237254151024</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2331.237254151024</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748109</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.241103772297</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,7 +4874,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,13 +4886,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
         <v>53.94298182036446</v>
@@ -4971,7 +4971,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
         <v>529.6040388502502</v>
@@ -4980,34 +4980,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064346</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5068,16 +5068,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852888</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5190,13 +5190,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5266,31 +5266,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5360,19 +5360,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5597,19 +5597,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5652,22 +5652,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5734,37 +5734,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429802</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
@@ -6214,28 +6214,28 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6244,34 +6244,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
         <v>243.4633055756266</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6545,19 +6545,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245705</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>513.8536007400717</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>366.9636532421613</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>199.7675539570412</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6791,10 +6791,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6837,16 +6837,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6925,16 +6925,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6961,13 +6961,13 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468472</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>738.7889117913853</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.167399417937</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>135.2579373565599</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>135.2579373565599</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7551,19 +7551,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7736,13 +7736,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>408.925855915485</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7845,13 +7845,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719081</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516226</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>250.2980548978887</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>45.44677382459301</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.5874149221289713</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>35.4033308462452</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>40.23897475306337</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>63.36835372228745</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>750880.2124683422</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>750880.2124683419</v>
+        <v>750880.212468342</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>750880.212468342</v>
+        <v>750880.2124683419</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.944744255</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="O2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>944372.7777577086</v>
+        <v>944372.7777577088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080586</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,22 +26426,22 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>5067.592601670473</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="F4" t="n">
-        <v>5067.592601670436</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="G4" t="n">
+        <v>5067.592601670438</v>
+      </c>
+      <c r="H4" t="n">
         <v>5067.592601670437</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5067.592601670416</v>
       </c>
       <c r="I4" t="n">
         <v>5067.592601670437</v>
       </c>
       <c r="J4" t="n">
-        <v>5067.592601670354</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="K4" t="n">
         <v>5067.592601670437</v>
@@ -26450,13 +26450,13 @@
         <v>5067.592601670437</v>
       </c>
       <c r="M4" t="n">
-        <v>5067.592601670469</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="N4" t="n">
-        <v>5067.592601670395</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="O4" t="n">
-        <v>5067.592601670438</v>
+        <v>5067.592601670437</v>
       </c>
       <c r="P4" t="n">
         <v>5067.592601670437</v>
@@ -26472,10 +26472,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196532.0030676519</v>
+        <v>-196532.003067652</v>
       </c>
       <c r="C6" t="n">
         <v>393435.8761468925</v>
       </c>
       <c r="D6" t="n">
-        <v>393435.8761468927</v>
+        <v>393435.8761468923</v>
       </c>
       <c r="E6" t="n">
-        <v>-385014.3346933884</v>
+        <v>-384701.693364467</v>
       </c>
       <c r="F6" t="n">
-        <v>559358.4430643205</v>
+        <v>559671.0843932417</v>
       </c>
       <c r="G6" t="n">
-        <v>559358.4430643205</v>
+        <v>559671.0843932418</v>
       </c>
       <c r="H6" t="n">
-        <v>559358.4430643207</v>
+        <v>559671.084393242</v>
       </c>
       <c r="I6" t="n">
-        <v>559358.4430643207</v>
+        <v>559671.0843932419</v>
       </c>
       <c r="J6" t="n">
-        <v>382935.2238717277</v>
+        <v>383247.8652006487</v>
       </c>
       <c r="K6" t="n">
-        <v>559358.4430643209</v>
+        <v>559671.0843932416</v>
       </c>
       <c r="L6" t="n">
-        <v>559358.4430643207</v>
+        <v>559671.0843932417</v>
       </c>
       <c r="M6" t="n">
-        <v>435149.9323562622</v>
+        <v>435462.5736851828</v>
       </c>
       <c r="N6" t="n">
-        <v>559358.4430643206</v>
+        <v>559671.0843932416</v>
       </c>
       <c r="O6" t="n">
-        <v>559358.4430643204</v>
+        <v>559671.0843932417</v>
       </c>
       <c r="P6" t="n">
-        <v>559358.4430643203</v>
+        <v>559671.0843932418</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26813,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>990.2318361245869</v>
+        <v>990.2318361245871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450924</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450929</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450924</v>
+        <v>498.4210153450927</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>77.21616217014099</v>
+        <v>64.97345050525834</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>40.02779476617665</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>40.02779476617664</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>224.2242097209977</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>72.29289347613644</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>69.5814020019245</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14.61605033522463</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>41.25137849404581</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>117.8655643935454</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>53.95978732560545</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352322</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28152,7 +28152,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-5.578167937219307e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31281,10 +31281,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31293,34 +31293,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31457,28 +31457,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,7 +31521,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31530,34 +31530,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,40 +31594,40 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
@@ -31636,7 +31636,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31852,16 +31852,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32080,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32095,7 +32095,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,13 +32326,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>282.8216163968498</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>400.5469039565762</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>400.5469039565762</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.6052721551105</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33511,13 +33511,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33736,13 +33736,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33973,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33991,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34210,16 +34210,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34234,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34456,16 +34456,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279164</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35500,16 +35500,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35728,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35743,7 +35743,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,13 +35974,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>140.6875824748315</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>257.9506595121318</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>257.9506595121318</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075146</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37159,13 +37159,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37639,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37791,7 +37791,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O41" t="n">
         <v>696.488651224316</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37882,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38028,13 +38028,13 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38104,16 +38104,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
